--- a/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/DataTest1.xlsx
+++ b/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/DataTest1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranielsen93/Documents/UNI/AAU - PDP 6 .sem./P6 - projekt/Til tests/Databehandling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\P6-LaTex\Content\Bilag\ElektroniskBilag\DataValgAfGestikker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,7 +192,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -200,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -471,12 +474,12 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -542,14 +545,41 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
       <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -565,14 +595,41 @@
       <c r="F3" t="s">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -588,14 +645,41 @@
       <c r="F4" t="s">
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -611,14 +695,41 @@
       <c r="F5" t="s">
         <v>4</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -634,14 +745,41 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -657,14 +795,41 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -680,14 +845,41 @@
       <c r="F8" t="s">
         <v>7</v>
       </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -703,14 +895,41 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -726,14 +945,41 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -749,14 +995,41 @@
       <c r="F11" t="s">
         <v>10</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -772,14 +1045,41 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -795,14 +1095,41 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -818,14 +1145,41 @@
       <c r="F14" t="s">
         <v>13</v>
       </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -841,14 +1195,41 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -864,14 +1245,41 @@
       <c r="F16" t="s">
         <v>15</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -887,14 +1295,41 @@
       <c r="F17" t="s">
         <v>16</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -910,14 +1345,41 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -933,11 +1395,38 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/DataTest1.xlsx
+++ b/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/DataTest1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Testperson</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>Volumen 3</t>
+  </si>
+  <si>
+    <t>Antal gange rangeret som bedste</t>
+  </si>
+  <si>
+    <t>Antal gange på top 3</t>
+  </si>
+  <si>
+    <t>Antal gange som dårligste</t>
+  </si>
+  <si>
+    <t>Gestik/pause-start</t>
+  </si>
+  <si>
+    <t>Gestik/skift musiknummer</t>
+  </si>
+  <si>
+    <t>Gestik/Skru op og ned</t>
   </si>
 </sst>
 </file>
@@ -471,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1429,6 +1447,359 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>9</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>12</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/DataTest1.xlsx
+++ b/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/DataTest1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lars\Documents\GitHub\P6-LaTex\Content\Bilag\ElektroniskBilag\DataValgAfGestikker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranielsen93/Documents/UNI/AAU - PDP 6 .sem./P6 - projekt/P6-LaTex/Content/Bilag/ElektroniskBilag/DataValgAfGestikker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -210,7 +210,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,11 +491,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1447,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
